--- a/data/quadrant/quadrant4_RP_MAJORITY.xlsx
+++ b/data/quadrant/quadrant4_RP_MAJORITY.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06709319930487317</v>
+        <v>0.06709316310830966</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09941662037199576</v>
+        <v>-0.09942380933772302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1199381582281175</v>
+        <v>0.119944096974808</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0683953592952686</v>
+        <v>0.0683953244921118</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09558772083070045</v>
+        <v>-0.09559495087703176</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1175369624702664</v>
+        <v>0.1175428221779764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06552810935090334</v>
+        <v>0.06552807572355383</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09554610850745272</v>
+        <v>-0.0955529462228261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1158576366322992</v>
+        <v>0.115863256642881</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07000861926122444</v>
+        <v>0.07000858671299771</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08404080520496809</v>
+        <v>-0.08404806524055372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1093803625444827</v>
+        <v>0.1093859199542231</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.013604510742075</v>
+        <v>0.01360456342492577</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07913857852610215</v>
+        <v>-0.07913298000515931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08029942293480863</v>
+        <v>0.0802939142804719</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01474883485177727</v>
+        <v>0.01474887982076829</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07088691742594103</v>
+        <v>-0.07088162463271974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07240499424512913</v>
+        <v>0.07239982159191588</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006361161781997067</v>
+        <v>0.0006361926557515963</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0704030237305811</v>
+        <v>-0.07040381504700559</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07040589743907064</v>
+        <v>0.07040668941420412</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01843622212220412</v>
+        <v>0.01843621679580669</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06712987248464912</v>
+        <v>-0.06713996403141947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0696154728917681</v>
+        <v>0.0696252027636709</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06026165456660262</v>
+        <v>0.0602616445621073</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01032709762830264</v>
+        <v>-0.01033143040578153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06114013376276693</v>
+        <v>0.06114085589488639</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002615801859718275</v>
+        <v>0.002615765811310645</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0228237164982738</v>
+        <v>-0.02282756742646795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02297312460600172</v>
+        <v>0.02297694638957845</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01021235372467543</v>
+        <v>0.0102123305972107</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0190016180920695</v>
+        <v>-0.01900215983158351</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02157205735934231</v>
+        <v>0.02157252360044535</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01597883198485558</v>
+        <v>0.01597879476638734</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01210143325082847</v>
+        <v>-0.0121045525344602</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02004414523806143</v>
+        <v>0.02004599895854119</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.009175446432674086</v>
+        <v>0.009175447171148042</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0111538336969688</v>
+        <v>-0.01115453015023354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01444288140844853</v>
+        <v>0.0144434197357481</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005676372293624338</v>
+        <v>0.005676373756600187</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01217241147240566</v>
+        <v>-0.01217173207709405</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01343088989863959</v>
+        <v>0.01343027478427674</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001878507759589232</v>
+        <v>0.001878480422303789</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01053521099901725</v>
+        <v>-0.01052754939371365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01070137664960219</v>
+        <v>0.01069382929235638</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001888889596782842</v>
+        <v>0.001888852233318692</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.007813131697164201</v>
+        <v>-0.007810327418125443</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008038216893445112</v>
+        <v>0.008035482383630435</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006317698601033858</v>
+        <v>0.006317717682014662</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.004489467725919143</v>
+        <v>-0.004504412640482239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007750395865733232</v>
+        <v>0.007759077905613327</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005911257016369386</v>
+        <v>0.005911311783279019</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.002064242309152742</v>
+        <v>-0.002072419707966762</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006261314225022774</v>
+        <v>0.006264066606055719</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005164731925831015</v>
+        <v>0.005164787208592352</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.002968607545675729</v>
+        <v>-0.002976893964505251</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005957103879062461</v>
+        <v>0.005961285480997112</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002935788716788576</v>
+        <v>0.002935824236960011</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.002080931962841969</v>
+        <v>-0.002078764993169259</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003598490408991032</v>
+        <v>0.003597266718933671</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003239341679073195</v>
+        <v>0.0003239226752783286</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.001456793523774438</v>
+        <v>-0.001451482152915169</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001492374187678462</v>
+        <v>0.001487187392291477</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>

--- a/data/quadrant/quadrant4_RP_MAJORITY.xlsx
+++ b/data/quadrant/quadrant4_RP_MAJORITY.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06709316310830966</v>
+        <v>0.06709304369753899</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09942380933772302</v>
+        <v>-0.09942042447825285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119944096974808</v>
+        <v>0.1199412244227807</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0683953244921118</v>
+        <v>0.06839520383527761</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09559495087703176</v>
+        <v>-0.09559120767164372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1175428221779764</v>
+        <v>0.1175397077237837</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06552807572355383</v>
+        <v>0.06552795485719445</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0955529462228261</v>
+        <v>-0.09554946428228134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.115863256642881</v>
+        <v>0.1158603167283668</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07000858671299771</v>
+        <v>0.07000847073699777</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08404806524055372</v>
+        <v>-0.08404389992827924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1093859199542231</v>
+        <v>0.1093826452874846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01360456342492577</v>
+        <v>0.01360468518805953</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.07913298000515931</v>
+        <v>-0.07913277799791159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0802939142804719</v>
+        <v>0.08029373582498804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01474887982076829</v>
+        <v>0.01474897821546703</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07088162463271974</v>
+        <v>-0.07088202969631406</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07239982159191588</v>
+        <v>0.07240023820588901</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006361926557515963</v>
+        <v>0.0006361129778763377</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.07040381504700559</v>
+        <v>-0.07040282465902699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07040668941420412</v>
+        <v>0.07040569834672702</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01843621679580669</v>
+        <v>0.01843632490459541</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06713996403141947</v>
+        <v>-0.06713134514341108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0696252027636709</v>
+        <v>0.06961692019007727</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0602616445621073</v>
+        <v>0.06026159904334848</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01033143040578153</v>
+        <v>-0.01032722479947269</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06114085589488639</v>
+        <v>0.06114010051774647</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002615765811310645</v>
+        <v>0.002615787894684116</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02282756742646795</v>
+        <v>-0.02282486347642148</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02297694638957845</v>
+        <v>0.02297426253500328</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0102123305972107</v>
+        <v>0.01021228917118434</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01900215983158351</v>
+        <v>-0.01900291664581962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02157252360044535</v>
+        <v>0.02157317063307703</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01597879476638734</v>
+        <v>0.01597872722697387</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0121045525344602</v>
+        <v>-0.01210311780446567</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02004599895854119</v>
+        <v>0.02004507880709901</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.009175447171148042</v>
+        <v>0.009175446974708418</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01115453015023354</v>
+        <v>-0.01115403664979912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0144434197357481</v>
+        <v>0.01444303848816958</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005676373756600187</v>
+        <v>0.005676382138161067</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01217173207709405</v>
+        <v>-0.01217233301965815</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01343027478427674</v>
+        <v>0.0134308229576558</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001878480422303789</v>
+        <v>0.001878465013294807</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01052754939371365</v>
+        <v>-0.01054005303552351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01069382929235638</v>
+        <v>0.01070613603490171</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001888852233318692</v>
+        <v>0.001888879284420129</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.007810327418125443</v>
+        <v>-0.007816414293344964</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008035482383630435</v>
+        <v>0.008041405185433633</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006317717682014662</v>
+        <v>0.006317627882511631</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.004504412640482239</v>
+        <v>-0.004503507805218253</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007759077905613327</v>
+        <v>0.007758479529750021</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005911311783279019</v>
+        <v>0.005911331500571293</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.002072419707966762</v>
+        <v>-0.002056672526305833</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006264066606055719</v>
+        <v>0.006258893032326697</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005164787208592352</v>
+        <v>0.005164808771874994</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.002976893964505251</v>
+        <v>-0.002961048585902916</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005961285480997112</v>
+        <v>0.005953407291468857</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002935824236960011</v>
+        <v>0.002935323123266506</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.002078764993169259</v>
+        <v>-0.002088913268926932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003597266718933671</v>
+        <v>0.003602732363509956</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003239226752783286</v>
+        <v>0.0003238632300036622</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.001451482152915169</v>
+        <v>-0.00145651076088769</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001487187392291477</v>
+        <v>0.001492082768592293</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
